--- a/reactive/power_throughput-dm4t.xlsx
+++ b/reactive/power_throughput-dm4t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A56C89-FD18-4D93-8C95-803E2E086C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F3C540-DD11-4219-9600-83C275CADB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12336" yWindow="756" windowWidth="26484" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1584" windowWidth="31740" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -477,11 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M129" sqref="M129"/>
+      <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -662,7 +661,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -745,7 +744,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -828,7 +827,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -911,7 +910,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -994,7 +993,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3401,7 +3400,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8132,7 +8131,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8547,7 +8546,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8879,7 +8878,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8962,7 +8961,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9377,7 +9376,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9626,7 +9625,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9792,7 +9791,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10290,7 +10289,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10373,7 +10372,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>0.31744800000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10540,13 +10539,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA121" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="shuffle"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
